--- a/results/MVSE/imdb/MVSE_imdb<l10><WL>66.05.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><WL>66.05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -681,11 +681,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -700,7 +696,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -720,20 +716,20 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.99</v>
+        <v>1.38</v>
       </c>
       <c r="O4" t="n">
-        <v>63.67</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -742,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -766,14 +762,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -788,9 +784,7 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -798,24 +792,26 @@
         <v>1.99</v>
       </c>
       <c r="O5" t="n">
-        <v>63.12</v>
+        <v>63.67</v>
       </c>
       <c r="P5" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -839,14 +835,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -861,28 +857,101 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O6" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>128</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.82</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>63.05</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>1.13</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l10><WL>66.05.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><WL>66.05.xlsx
@@ -580,14 +580,14 @@
         <v>66.05</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-23_25_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -689,7 +689,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -711,30 +711,30 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="O4" t="n">
-        <v>64.15000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="P4" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">

--- a/results/MVSE/imdb/MVSE_imdb<l10><WL>66.05.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><WL>66.05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -608,11 +608,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -627,7 +623,7 @@
         <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -647,20 +643,20 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="O3" t="n">
-        <v>65.34999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="P3" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_52_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_23_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -669,7 +665,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -689,14 +685,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -711,34 +707,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="O4" t="n">
-        <v>65.16</v>
+        <v>65.64</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_57_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -750,11 +746,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -762,14 +754,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -784,34 +776,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="O5" t="n">
-        <v>63.67</v>
+        <v>65.44</v>
       </c>
       <c r="P5" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.26</v>
+        <v>0.59</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_29_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -835,14 +827,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -857,34 +849,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="O6" t="n">
-        <v>63.12</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_52_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -896,11 +888,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -908,14 +896,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -930,28 +918,247 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O7" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>128</v>
+      </c>
+      <c r="H8" t="n">
+        <v>200</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O8" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>128</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O9" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.82</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O10" t="n">
         <v>63.05</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P10" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q10" t="n">
         <v>1.13</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S10" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l10><WL>66.05.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><WL>66.05.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -569,7 +573,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -638,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -677,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -707,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -746,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -799,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_29_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -849,7 +873,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -941,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -991,7 +1023,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
@@ -1087,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1137,7 +1173,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
